--- a/Pain of Payment Questionnaire.xlsx
+++ b/Pain of Payment Questionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benzh7/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yehuda\pain_of_payment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D92B4B3-1D9E-9F4E-8FCA-654ED14E11CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F1AD3A-9425-48AF-865F-937C677A3822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="309">
   <si>
     <t>StartDate</t>
   </si>
@@ -422,9 +422,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>סמארטפון</t>
-  </si>
-  <si>
     <t>כן</t>
   </si>
   <si>
@@ -470,9 +467,6 @@
     <t>R_1pLv3msulTMxlT4</t>
   </si>
   <si>
-    <t>מזומן</t>
-  </si>
-  <si>
     <t>לא</t>
   </si>
   <si>
@@ -503,7 +497,7 @@
     <t>R_1gd4eKTTU1fOpOJ</t>
   </si>
   <si>
-    <t>אשראי</t>
+    <t>Credit Card</t>
   </si>
   <si>
     <t>101</t>
@@ -641,6 +635,9 @@
     <t>15</t>
   </si>
   <si>
+    <t>1-  כלל לא נכון</t>
+  </si>
+  <si>
     <t>113</t>
   </si>
   <si>
@@ -923,6 +920,9 @@
     <t>R_1PY5LesI1FMnyFE</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>234</t>
   </si>
   <si>
@@ -962,10 +962,10 @@
     <t>79</t>
   </si>
   <si>
-    <t>PoP</t>
-  </si>
-  <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Pop</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,12 +991,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1012,18 +1006,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1042,7 +1032,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1330,7 +1320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1340,19 +1330,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CE56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ43" workbookViewId="0">
-      <selection activeCell="BT48" sqref="BT48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
@@ -1847,11 +1839,11 @@
       <c r="CD2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CE2" s="4" t="s">
-        <v>307</v>
+      <c r="CE2" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44987.799270833333</v>
       </c>
@@ -2012,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC3" s="2" t="s">
         <v>122</v>
@@ -2026,8 +2018,8 @@
       <c r="BF3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG3" s="6">
-        <v>39</v>
+      <c r="BG3" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH3">
         <v>2.472</v>
@@ -2042,31 +2034,31 @@
         <v>17</v>
       </c>
       <c r="BL3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BM3" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="BN3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR3" s="2" t="s">
+      <c r="BS3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BS3" s="2" t="s">
+      <c r="BT3" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="BT3" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="BU3">
         <v>1.9510000000000001</v>
@@ -2081,29 +2073,29 @@
         <v>8</v>
       </c>
       <c r="BY3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ3" s="2" t="s">
+      <c r="CA3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="CA3" s="2" t="s">
+      <c r="CB3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CC3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CC3" s="2" t="s">
+      <c r="CD3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="CD3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE3" s="5">
+      <c r="CE3" s="4">
         <f>Z3+AI3+(8-AN3)+(8-AW3)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44987.803622685184</v>
       </c>
@@ -2129,7 +2121,7 @@
         <v>44987.805859745371</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>122</v>
@@ -2222,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -2249,7 +2241,7 @@
         <v>6</v>
       </c>
       <c r="AW4" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX4">
         <v>4.6230000000000002</v>
@@ -2264,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="BC4" s="2" t="s">
         <v>122</v>
@@ -2278,8 +2270,8 @@
       <c r="BF4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG4" s="6">
-        <v>39</v>
+      <c r="BG4" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH4">
         <v>2.6619999999999999</v>
@@ -2294,31 +2286,31 @@
         <v>16</v>
       </c>
       <c r="BL4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP4" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BM4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BN4" s="2" t="s">
+      <c r="BQ4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BO4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP4" s="2" t="s">
+      <c r="BR4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="BQ4" s="2" t="s">
+      <c r="BS4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT4" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="BR4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BT4" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="BU4">
         <v>1.419</v>
@@ -2333,29 +2325,29 @@
         <v>9</v>
       </c>
       <c r="BY4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ4" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="CA4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CB4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CC4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="CB4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD4" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="CE4" s="5">
+      <c r="CE4" s="4">
         <f t="shared" ref="CE4:CE56" si="0">Z4+AI4+(8-AN4)+(8-AW4)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44987.829699074071</v>
       </c>
@@ -2381,7 +2373,7 @@
         <v>44987.830874803243</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>122</v>
@@ -2432,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -2516,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="BB5" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC5" s="2" t="s">
         <v>122</v>
@@ -2530,8 +2522,8 @@
       <c r="BF5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG5" s="6">
-        <v>46</v>
+      <c r="BG5" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH5">
         <v>1.1279999999999999</v>
@@ -2546,31 +2538,31 @@
         <v>21</v>
       </c>
       <c r="BL5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM5" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="BM5" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="BN5" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BO5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BP5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BP5" s="2" t="s">
+      <c r="BQ5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR5" s="2" t="s">
+      <c r="BS5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BS5" s="2" t="s">
+      <c r="BT5" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="BT5" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="BU5">
         <v>1.4710000000000001</v>
@@ -2585,29 +2577,29 @@
         <v>10</v>
       </c>
       <c r="BY5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ5" s="2" t="s">
+      <c r="CA5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="CA5" s="2" t="s">
+      <c r="CB5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="CB5" s="2" t="s">
+      <c r="CC5" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CC5" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="CD5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="CE5" s="5">
+        <v>153</v>
+      </c>
+      <c r="CE5" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44988.425775462965</v>
       </c>
@@ -2633,7 +2625,7 @@
         <v>44988.42812207176</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>122</v>
@@ -2684,7 +2676,7 @@
         <v>1</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -2753,7 +2745,7 @@
         <v>1</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AX6">
         <v>2.2090000000000001</v>
@@ -2768,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="BB6" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC6" s="2" t="s">
         <v>122</v>
@@ -2782,8 +2774,8 @@
       <c r="BF6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG6" s="6">
-        <v>49</v>
+      <c r="BG6" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH6">
         <v>1.86</v>
@@ -2798,7 +2790,7 @@
         <v>18</v>
       </c>
       <c r="BL6" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM6" s="2" t="s">
         <v>126</v>
@@ -2807,22 +2799,22 @@
         <v>125</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BP6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BQ6" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BR6" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BS6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU6">
         <v>1.385</v>
@@ -2837,29 +2829,29 @@
         <v>7</v>
       </c>
       <c r="BY6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CB6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CC6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD6" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="BZ6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="CA6" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="CB6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="CE6" s="5">
+      <c r="CE6" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44988.460879629631</v>
       </c>
@@ -2885,7 +2877,7 @@
         <v>44988.462447152779</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>122</v>
@@ -2936,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -2963,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ7">
         <v>2.448</v>
@@ -2978,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO7">
         <v>0</v>
@@ -3005,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX7">
         <v>2.694</v>
@@ -3020,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="BB7" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC7" s="2" t="s">
         <v>122</v>
@@ -3034,8 +3026,8 @@
       <c r="BF7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG7" s="6">
-        <v>53</v>
+      <c r="BG7" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH7">
         <v>2.1949999999999998</v>
@@ -3050,31 +3042,31 @@
         <v>24</v>
       </c>
       <c r="BL7" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM7" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BN7" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BP7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BQ7" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR7" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BS7" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BT7" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU7">
         <v>1.123</v>
@@ -3089,29 +3081,29 @@
         <v>11</v>
       </c>
       <c r="BY7" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CA7" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CC7" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="CD7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE7" s="5">
+        <v>161</v>
+      </c>
+      <c r="CE7" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44988.521909722222</v>
       </c>
@@ -3137,7 +3129,7 @@
         <v>44988.524434155093</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>122</v>
@@ -3188,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -3257,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX8">
         <v>8.1050000000000004</v>
@@ -3272,7 +3264,7 @@
         <v>3</v>
       </c>
       <c r="BB8" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="BC8" s="2" t="s">
         <v>122</v>
@@ -3286,8 +3278,8 @@
       <c r="BF8" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG8" s="6">
-        <v>49</v>
+      <c r="BG8" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH8">
         <v>1.9219999999999999</v>
@@ -3302,31 +3294,31 @@
         <v>20</v>
       </c>
       <c r="BL8" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM8" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BN8" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BP8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BQ8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BR8" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="BS8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BT8" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BU8">
         <v>1.3009999999999999</v>
@@ -3341,29 +3333,29 @@
         <v>9</v>
       </c>
       <c r="BY8" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ8" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA8" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB8" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CD8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="CE8" s="5">
+        <v>165</v>
+      </c>
+      <c r="CE8" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44988.560381944444</v>
       </c>
@@ -3389,7 +3381,7 @@
         <v>44988.562471365738</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>122</v>
@@ -3440,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -3524,7 +3516,7 @@
         <v>1</v>
       </c>
       <c r="BB9" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC9" s="2" t="s">
         <v>122</v>
@@ -3538,8 +3530,8 @@
       <c r="BF9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG9" s="6">
-        <v>33</v>
+      <c r="BG9" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH9">
         <v>2.0169999999999999</v>
@@ -3554,7 +3546,7 @@
         <v>22</v>
       </c>
       <c r="BL9" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM9" s="2" t="s">
         <v>125</v>
@@ -3566,19 +3558,19 @@
         <v>125</v>
       </c>
       <c r="BP9" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BQ9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR9" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BS9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BT9" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BU9">
         <v>3.6230000000000002</v>
@@ -3593,29 +3585,29 @@
         <v>12</v>
       </c>
       <c r="BY9" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CA9" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="CC9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="CD9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="CC9" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="CD9" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="CE9" s="5">
+      <c r="CE9" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44989.847488425927</v>
       </c>
@@ -3626,7 +3618,7 @@
         <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -3641,7 +3633,7 @@
         <v>44989.85375185185</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>122</v>
@@ -3719,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AJ10">
         <v>7.8849999999999998</v>
@@ -3776,7 +3768,7 @@
         <v>1</v>
       </c>
       <c r="BB10" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC10" s="2" t="s">
         <v>122</v>
@@ -3790,8 +3782,8 @@
       <c r="BF10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG10" s="6">
-        <v>82</v>
+      <c r="BG10" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH10">
         <v>4.077</v>
@@ -3806,31 +3798,31 @@
         <v>30</v>
       </c>
       <c r="BL10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BM10" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BN10" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BO10" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BP10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR10" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ10" s="2" t="s">
+      <c r="BS10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT10" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="BR10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BS10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BT10" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="BU10">
         <v>2.3759999999999999</v>
@@ -3845,29 +3837,29 @@
         <v>9</v>
       </c>
       <c r="BY10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ10" s="2" t="s">
+      <c r="CA10" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="CA10" s="2" t="s">
+      <c r="CB10" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="CB10" s="2" t="s">
+      <c r="CC10" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CC10" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="CD10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="CE10" s="5">
+        <v>172</v>
+      </c>
+      <c r="CE10" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>44992.88826388889</v>
       </c>
@@ -3878,7 +3870,7 @@
         <v>84</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -3893,14 +3885,12 @@
         <v>44992.889861967589</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
         <v>122</v>
       </c>
@@ -3986,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO11">
         <v>0</v>
@@ -4028,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="BB11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC11" s="2" t="s">
         <v>122</v>
@@ -4042,8 +4032,8 @@
       <c r="BF11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG11" s="6">
-        <v>28</v>
+      <c r="BG11" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH11">
         <v>2.0270000000000001</v>
@@ -4058,31 +4048,31 @@
         <v>21</v>
       </c>
       <c r="BL11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BM11" s="2" t="s">
+      <c r="BP11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BN11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BO11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP11" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="BQ11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR11" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BS11" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BT11" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BU11">
         <v>1.8180000000000001</v>
@@ -4097,29 +4087,29 @@
         <v>10</v>
       </c>
       <c r="BY11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ11" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="CA11" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB11" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CC11" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD11" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="CE11" s="5">
+        <v>176</v>
+      </c>
+      <c r="CE11" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>44992.893379629626</v>
       </c>
@@ -4130,7 +4120,7 @@
         <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -4145,7 +4135,7 @@
         <v>44992.895055393521</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>122</v>
@@ -4196,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -4280,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="BB12" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC12" s="2" t="s">
         <v>122</v>
@@ -4294,8 +4284,8 @@
       <c r="BF12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG12" s="6">
-        <v>41</v>
+      <c r="BG12" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH12">
         <v>1.921</v>
@@ -4310,31 +4300,31 @@
         <v>16</v>
       </c>
       <c r="BL12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BM12" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN12" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BO12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BP12" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="BQ12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BS12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BT12" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="BR12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BS12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BT12" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="BU12">
         <v>1.5449999999999999</v>
@@ -4349,29 +4339,29 @@
         <v>9</v>
       </c>
       <c r="BY12" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CA12" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB12" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CC12" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="CE12" s="5">
+        <v>178</v>
+      </c>
+      <c r="CE12" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>44993.559513888889</v>
       </c>
@@ -4382,7 +4372,7 @@
         <v>84</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -4397,7 +4387,7 @@
         <v>44993.561647523151</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>122</v>
@@ -4490,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -4517,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX13">
         <v>2.0699999999999998</v>
@@ -4532,7 +4522,7 @@
         <v>2</v>
       </c>
       <c r="BB13" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC13" s="2" t="s">
         <v>122</v>
@@ -4546,8 +4536,8 @@
       <c r="BF13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG13" s="6">
-        <v>42</v>
+      <c r="BG13" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH13">
         <v>1.7130000000000001</v>
@@ -4562,31 +4552,31 @@
         <v>17</v>
       </c>
       <c r="BL13" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM13" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BN13" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BO13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BP13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BQ13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR13" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="BQ13" s="2" t="s">
+      <c r="BS13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT13" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="BR13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BT13" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="BU13">
         <v>2.1930000000000001</v>
@@ -4601,29 +4591,29 @@
         <v>13</v>
       </c>
       <c r="BY13" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ13" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA13" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CC13" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="CD13" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="CE13" s="5">
+        <v>182</v>
+      </c>
+      <c r="CE13" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>44993.567800925928</v>
       </c>
@@ -4634,7 +4624,7 @@
         <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -4649,7 +4639,7 @@
         <v>44993.569654560182</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>122</v>
@@ -4784,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="BB14" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC14" s="2" t="s">
         <v>122</v>
@@ -4798,8 +4788,8 @@
       <c r="BF14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG14" s="6">
-        <v>41</v>
+      <c r="BG14" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH14">
         <v>5.9269999999999996</v>
@@ -4814,10 +4804,10 @@
         <v>15</v>
       </c>
       <c r="BL14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM14" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="BM14" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="BN14" s="2" t="s">
         <v>125</v>
@@ -4826,19 +4816,19 @@
         <v>125</v>
       </c>
       <c r="BP14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ14" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR14" s="2" t="s">
+      <c r="BS14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BS14" s="2" t="s">
+      <c r="BT14" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="BT14" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="BU14">
         <v>1.2569999999999999</v>
@@ -4853,29 +4843,29 @@
         <v>9</v>
       </c>
       <c r="BY14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ14" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ14" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="CA14" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB14" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="CC14" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="CD14" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CE14" s="5">
+        <v>184</v>
+      </c>
+      <c r="CE14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>44993.679965277777</v>
       </c>
@@ -4886,7 +4876,7 @@
         <v>84</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -4901,7 +4891,7 @@
         <v>44993.682521863426</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>122</v>
@@ -4952,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -4979,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AJ15">
         <v>7.4809999999999999</v>
@@ -4994,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO15">
         <v>35.889000000000003</v>
@@ -5021,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX15">
         <v>3.3039999999999998</v>
@@ -5036,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="BB15" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC15" s="2" t="s">
         <v>122</v>
@@ -5050,8 +5040,8 @@
       <c r="BF15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="BG15" s="6">
-        <v>62</v>
+      <c r="BG15" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="BH15">
         <v>1.3540000000000001</v>
@@ -5066,31 +5056,31 @@
         <v>30</v>
       </c>
       <c r="BL15" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BN15" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BO15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BP15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BQ15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR15" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="BQ15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR15" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="BS15" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT15" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BU15">
         <v>2.0219999999999998</v>
@@ -5105,29 +5095,29 @@
         <v>10</v>
       </c>
       <c r="BY15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ15" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="CA15" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB15" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CD15" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE15" s="5">
+        <v>187</v>
+      </c>
+      <c r="CE15" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>44999.490474537037</v>
       </c>
@@ -5138,7 +5128,7 @@
         <v>84</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -5153,7 +5143,7 @@
         <v>44999.492888680557</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>122</v>
@@ -5204,7 +5194,7 @@
         <v>2</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -5231,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ16">
         <v>5.76</v>
@@ -5246,7 +5236,7 @@
         <v>3</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -5273,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="AW16" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AX16">
         <v>2.597</v>
@@ -5288,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="BB16" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC16">
         <v>1.383</v>
@@ -5303,7 +5293,7 @@
         <v>2</v>
       </c>
       <c r="BG16" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="BH16">
         <v>2.0670000000000002</v>
@@ -5318,31 +5308,31 @@
         <v>25</v>
       </c>
       <c r="BL16" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM16" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BN16" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BO16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BP16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR16" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="BS16" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT16" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BU16">
         <v>2.1139999999999999</v>
@@ -5357,29 +5347,29 @@
         <v>11</v>
       </c>
       <c r="BY16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ16" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="CA16" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CC16" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD16" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="CE16" s="5">
+        <v>191</v>
+      </c>
+      <c r="CE16" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>44999.505810185183</v>
       </c>
@@ -5390,7 +5380,7 @@
         <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -5405,7 +5395,7 @@
         <v>44999.507151886573</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>122</v>
@@ -5498,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -5525,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="AW17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX17">
         <v>2.3690000000000002</v>
@@ -5540,7 +5530,7 @@
         <v>2</v>
       </c>
       <c r="BB17" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC17">
         <v>1.1100000000000001</v>
@@ -5555,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="BG17" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="BH17">
         <v>1.569</v>
@@ -5570,7 +5560,7 @@
         <v>24</v>
       </c>
       <c r="BL17" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM17" s="2" t="s">
         <v>125</v>
@@ -5579,22 +5569,22 @@
         <v>125</v>
       </c>
       <c r="BO17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BP17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR17" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="BS17" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT17" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU17">
         <v>1.306</v>
@@ -5609,29 +5599,29 @@
         <v>16</v>
       </c>
       <c r="BY17" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ17" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA17" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB17" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC17" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="CD17" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="CE17" s="5">
+        <v>195</v>
+      </c>
+      <c r="CE17" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44999.545717592591</v>
       </c>
@@ -5642,7 +5632,7 @@
         <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -5657,7 +5647,7 @@
         <v>44999.547031886577</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>122</v>
@@ -5750,7 +5740,7 @@
         <v>1</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -5792,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="BB18" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC18">
         <v>1.425</v>
@@ -5807,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="BG18" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BH18">
         <v>2.2229999999999999</v>
@@ -5822,31 +5812,31 @@
         <v>19</v>
       </c>
       <c r="BL18" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM18" s="2" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="BN18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BO18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BP18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR18" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="BS18" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT18" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BU18">
         <v>2.3759999999999999</v>
@@ -5861,29 +5851,29 @@
         <v>9</v>
       </c>
       <c r="BY18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ18" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB18" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC18" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="CD18" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CE18" s="5">
+        <v>199</v>
+      </c>
+      <c r="CE18" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44999.56591435185</v>
       </c>
@@ -5894,7 +5884,7 @@
         <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -5909,7 +5899,7 @@
         <v>44999.567485983796</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>122</v>
@@ -5960,7 +5950,7 @@
         <v>2</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA19">
         <v>8.6280000000000001</v>
@@ -6029,7 +6019,7 @@
         <v>4</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX19">
         <v>2.5550000000000002</v>
@@ -6044,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="BB19" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC19">
         <v>1.625</v>
@@ -6059,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="BG19" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BH19">
         <v>1.611</v>
@@ -6074,31 +6064,31 @@
         <v>24</v>
       </c>
       <c r="BL19" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM19" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BN19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BQ19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BO19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BQ19" s="2" t="s">
+      <c r="BR19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BR19" s="2" t="s">
+      <c r="BS19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BS19" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="BT19" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU19">
         <v>1.3939999999999999</v>
@@ -6113,29 +6103,29 @@
         <v>7</v>
       </c>
       <c r="BY19" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ19" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA19" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB19" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC19" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD19" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE19" s="5">
+        <v>161</v>
+      </c>
+      <c r="CE19" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>44999.581493055557</v>
       </c>
@@ -6146,7 +6136,7 @@
         <v>84</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -6161,7 +6151,7 @@
         <v>44999.583722152776</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>122</v>
@@ -6212,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -6239,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AJ20">
         <v>10.082000000000001</v>
@@ -6296,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="BB20" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC20">
         <v>5.1150000000000002</v>
@@ -6311,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="BG20" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BH20">
         <v>2.7989999999999999</v>
@@ -6326,31 +6316,31 @@
         <v>19</v>
       </c>
       <c r="BL20" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM20" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BN20" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BO20" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BP20" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BQ20" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR20" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BS20" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT20" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BU20">
         <v>1.276</v>
@@ -6365,29 +6355,29 @@
         <v>10</v>
       </c>
       <c r="BY20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ20" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CB20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="CC20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="CD20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="CB20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="CC20" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="CD20" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="CE20" s="5">
+      <c r="CE20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>44999.600787037038</v>
       </c>
@@ -6398,7 +6388,7 @@
         <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -6413,7 +6403,7 @@
         <v>44999.602805069444</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>122</v>
@@ -6548,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="BB21" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC21">
         <v>2.1579999999999999</v>
@@ -6563,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="BG21" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BH21">
         <v>1.829</v>
@@ -6578,31 +6568,31 @@
         <v>18</v>
       </c>
       <c r="BL21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ21" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BM21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BO21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BP21" s="2" t="s">
+      <c r="BR21" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ21" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BR21" s="2" t="s">
+      <c r="BS21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BS21" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="BT21" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU21">
         <v>1.913</v>
@@ -6617,29 +6607,29 @@
         <v>9</v>
       </c>
       <c r="BY21" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ21" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA21" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB21" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC21" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="CD21" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CE21" s="5">
+        <v>207</v>
+      </c>
+      <c r="CE21" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>44999.60832175926</v>
       </c>
@@ -6650,7 +6640,7 @@
         <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -6665,7 +6655,7 @@
         <v>44999.609761585649</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>122</v>
@@ -6800,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="BB22" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC22">
         <v>1.083</v>
@@ -6815,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="BG22" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BH22">
         <v>3.8290000000000002</v>
@@ -6830,31 +6820,31 @@
         <v>21</v>
       </c>
       <c r="BL22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BM22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BN22" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BO22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BP22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR22" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR22" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="BS22" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BT22" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU22">
         <v>1.3420000000000001</v>
@@ -6869,29 +6859,29 @@
         <v>11</v>
       </c>
       <c r="BY22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ22" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA22" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CC22" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD22" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CE22" s="5">
+        <v>210</v>
+      </c>
+      <c r="CE22" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44999.62572916667</v>
       </c>
@@ -6902,7 +6892,7 @@
         <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -6917,7 +6907,7 @@
         <v>44999.627539953704</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>122</v>
@@ -7010,7 +7000,7 @@
         <v>1</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AO23">
         <v>20.754000000000001</v>
@@ -7052,7 +7042,7 @@
         <v>1</v>
       </c>
       <c r="BB23" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="BC23">
         <v>1.389</v>
@@ -7067,7 +7057,7 @@
         <v>1</v>
       </c>
       <c r="BG23" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BH23">
         <v>1.9790000000000001</v>
@@ -7082,7 +7072,7 @@
         <v>19</v>
       </c>
       <c r="BL23" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM23" s="2" t="s">
         <v>126</v>
@@ -7091,22 +7081,22 @@
         <v>125</v>
       </c>
       <c r="BO23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BP23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR23" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="BS23" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BT23" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU23">
         <v>1.7230000000000001</v>
@@ -7121,29 +7111,29 @@
         <v>9</v>
       </c>
       <c r="BY23" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ23" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA23" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB23" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CC23" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD23" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="CE23" s="5">
+        <v>213</v>
+      </c>
+      <c r="CE23" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>44999.639826388891</v>
       </c>
@@ -7154,7 +7144,7 @@
         <v>84</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -7169,7 +7159,7 @@
         <v>44999.641728333336</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>122</v>
@@ -7220,7 +7210,7 @@
         <v>1</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -7247,7 +7237,7 @@
         <v>1</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AJ24">
         <v>4.625</v>
@@ -7262,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AO24">
         <v>0</v>
@@ -7304,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="BB24" s="2" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="BC24">
         <v>1.079</v>
@@ -7319,7 +7309,7 @@
         <v>1</v>
       </c>
       <c r="BG24" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BH24">
         <v>2.1469999999999998</v>
@@ -7334,31 +7324,31 @@
         <v>21</v>
       </c>
       <c r="BL24" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM24" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BN24" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BO24" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BP24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BQ24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="BQ24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR24" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="BS24" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT24" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU24">
         <v>1.5960000000000001</v>
@@ -7373,29 +7363,29 @@
         <v>11</v>
       </c>
       <c r="BY24" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ24" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA24" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CC24" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="CD24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE24" s="5">
+        <v>140</v>
+      </c>
+      <c r="CE24" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>44999.660358796296</v>
       </c>
@@ -7406,7 +7396,7 @@
         <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -7421,7 +7411,7 @@
         <v>44999.662279502314</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>122</v>
@@ -7541,7 +7531,7 @@
         <v>4</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX25">
         <v>1.917</v>
@@ -7556,7 +7546,7 @@
         <v>2</v>
       </c>
       <c r="BB25" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC25">
         <v>1.329</v>
@@ -7571,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="BG25" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BH25">
         <v>2.5230000000000001</v>
@@ -7586,31 +7576,31 @@
         <v>17</v>
       </c>
       <c r="BL25" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BM25" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BN25" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BO25" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BP25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR25" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ25" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR25" s="2" t="s">
+      <c r="BS25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BS25" s="2" t="s">
+      <c r="BT25" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="BT25" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="BU25">
         <v>1.474</v>
@@ -7625,29 +7615,29 @@
         <v>9</v>
       </c>
       <c r="BY25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="CA25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="CC25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD25" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="CA25" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="CB25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="CC25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD25" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="CE25" s="5">
+      <c r="CE25" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:83" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:83" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>45000.447418981479</v>
       </c>
@@ -7658,7 +7648,7 @@
         <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -7673,7 +7663,7 @@
         <v>45000.449453055553</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>122</v>
@@ -7766,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AO26">
         <v>0</v>
@@ -7808,7 +7798,7 @@
         <v>2</v>
       </c>
       <c r="BB26" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="BC26">
         <v>1.5680000000000001</v>
@@ -7823,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="BG26" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BH26">
         <v>5.5739999999999998</v>
@@ -7838,31 +7828,31 @@
         <v>15</v>
       </c>
       <c r="BL26" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BN26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BO26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BP26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR26" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ26" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR26" s="2" t="s">
+      <c r="BS26" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BS26" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="BT26" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BU26">
         <v>1.677</v>
@@ -7877,29 +7867,29 @@
         <v>8</v>
       </c>
       <c r="BY26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ26" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA26" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB26" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC26" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD26" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="CE26" s="5">
+        <v>223</v>
+      </c>
+      <c r="CE26" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>45000.475254629629</v>
       </c>
@@ -7910,7 +7900,7 @@
         <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -7925,7 +7915,7 @@
         <v>45000.476890972219</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>122</v>
@@ -8003,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="AI27" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ27">
         <v>3.871</v>
@@ -8018,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AN27" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AO27">
         <v>0</v>
@@ -8060,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="BB27" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="BC27">
         <v>1.4810000000000001</v>
@@ -8075,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="BG27" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BH27">
         <v>1.6359999999999999</v>
@@ -8090,31 +8080,31 @@
         <v>21</v>
       </c>
       <c r="BL27" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ27" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BN27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BO27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP27" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ27" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="BR27" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BS27" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT27" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU27">
         <v>1.31</v>
@@ -8129,29 +8119,29 @@
         <v>8</v>
       </c>
       <c r="BY27" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ27" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA27" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB27" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC27" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="CE27" s="5">
+        <v>227</v>
+      </c>
+      <c r="CE27" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>45000.481111111112</v>
       </c>
@@ -8162,7 +8152,7 @@
         <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -8177,7 +8167,7 @@
         <v>45000.484136793981</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>122</v>
@@ -8228,7 +8218,7 @@
         <v>2</v>
       </c>
       <c r="Z28" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -8255,7 +8245,7 @@
         <v>1</v>
       </c>
       <c r="AI28" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ28">
         <v>3.177</v>
@@ -8270,7 +8260,7 @@
         <v>1</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO28">
         <v>0</v>
@@ -8297,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="AW28" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX28">
         <v>4.8390000000000004</v>
@@ -8312,7 +8302,7 @@
         <v>1</v>
       </c>
       <c r="BB28" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="BC28">
         <v>2.73</v>
@@ -8327,7 +8317,7 @@
         <v>1</v>
       </c>
       <c r="BG28" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BH28">
         <v>3.3109999999999999</v>
@@ -8342,31 +8332,31 @@
         <v>21</v>
       </c>
       <c r="BL28" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM28" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BN28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BO28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP28" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="BQ28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR28" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BS28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BT28" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU28">
         <v>1.506</v>
@@ -8381,29 +8371,29 @@
         <v>11</v>
       </c>
       <c r="BY28" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ28" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA28" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CC28" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="CD28" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="CE28" s="5">
+        <v>230</v>
+      </c>
+      <c r="CE28" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>45000.600636574076</v>
       </c>
@@ -8414,7 +8404,7 @@
         <v>84</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -8429,7 +8419,7 @@
         <v>45000.602994270834</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>122</v>
@@ -8480,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="Z29" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -8507,7 +8497,7 @@
         <v>1</v>
       </c>
       <c r="AI29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ29">
         <v>9</v>
@@ -8522,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="AN29" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AO29">
         <v>0</v>
@@ -8549,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="AW29" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX29">
         <v>2.4009999999999998</v>
@@ -8564,7 +8554,7 @@
         <v>1</v>
       </c>
       <c r="BB29" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC29">
         <v>1.9510000000000001</v>
@@ -8579,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="BG29" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BH29">
         <v>15.265000000000001</v>
@@ -8594,10 +8584,10 @@
         <v>17</v>
       </c>
       <c r="BL29" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BN29" s="2" t="s">
         <v>125</v>
@@ -8606,19 +8596,19 @@
         <v>125</v>
       </c>
       <c r="BP29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BQ29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR29" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BS29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BT29" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU29">
         <v>1.78</v>
@@ -8633,29 +8623,29 @@
         <v>12</v>
       </c>
       <c r="BY29" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ29" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA29" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB29" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC29" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD29" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="CE29" s="5">
+        <v>234</v>
+      </c>
+      <c r="CE29" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>45000.611273148148</v>
       </c>
@@ -8666,7 +8656,7 @@
         <v>84</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -8681,7 +8671,7 @@
         <v>45000.612780694442</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>122</v>
@@ -8732,7 +8722,7 @@
         <v>5</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA30">
         <v>0.79600000000000004</v>
@@ -8759,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="AI30" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AJ30">
         <v>7.29</v>
@@ -8774,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AN30" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AO30">
         <v>0</v>
@@ -8801,7 +8791,7 @@
         <v>2</v>
       </c>
       <c r="AW30" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX30">
         <v>1.577</v>
@@ -8816,7 +8806,7 @@
         <v>1</v>
       </c>
       <c r="BB30" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="BC30">
         <v>1.1140000000000001</v>
@@ -8831,7 +8821,7 @@
         <v>2</v>
       </c>
       <c r="BG30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BH30">
         <v>2.09</v>
@@ -8846,31 +8836,31 @@
         <v>23</v>
       </c>
       <c r="BL30" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BN30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BO30" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BP30" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BQ30" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR30" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BS30" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BT30" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BU30">
         <v>1.4239999999999999</v>
@@ -8885,29 +8875,29 @@
         <v>10</v>
       </c>
       <c r="BY30" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ30" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA30" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB30" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC30" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CD30" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="CE30" s="5">
+        <v>236</v>
+      </c>
+      <c r="CE30" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>45000.624884259261</v>
       </c>
@@ -8918,7 +8908,7 @@
         <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -8933,7 +8923,7 @@
         <v>45000.627459074072</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>122</v>
@@ -9068,7 +9058,7 @@
         <v>1</v>
       </c>
       <c r="BB31" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC31">
         <v>2.0059999999999998</v>
@@ -9083,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="BG31" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="BH31">
         <v>2.3959999999999999</v>
@@ -9098,31 +9088,31 @@
         <v>18</v>
       </c>
       <c r="BL31" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM31" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BN31" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BO31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BS31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BP31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ31" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR31" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="BS31" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="BT31" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU31">
         <v>1.4750000000000001</v>
@@ -9137,29 +9127,29 @@
         <v>8</v>
       </c>
       <c r="BY31" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ31" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA31" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB31" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="CC31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="CD31" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="CC31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CD31" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="CE31" s="5">
+      <c r="CE31" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:83" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>45000.634745370371</v>
       </c>
@@ -9170,7 +9160,7 @@
         <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -9185,7 +9175,7 @@
         <v>45000.63634287037</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>122</v>
@@ -9278,7 +9268,7 @@
         <v>1</v>
       </c>
       <c r="AN32" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO32">
         <v>0</v>
@@ -9305,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="AW32" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AX32">
         <v>2.4359999999999999</v>
@@ -9320,7 +9310,7 @@
         <v>2</v>
       </c>
       <c r="BB32" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC32">
         <v>1.5149999999999999</v>
@@ -9335,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="BG32" s="2" t="s">
-        <v>255</v>
+        <v>143</v>
       </c>
       <c r="BH32">
         <v>2.5419999999999998</v>
@@ -9350,31 +9340,31 @@
         <v>22</v>
       </c>
       <c r="BL32" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM32" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BN32" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BO32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BP32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR32" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR32" s="2" t="s">
+      <c r="BS32" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BS32" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="BT32" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU32">
         <v>1.268</v>
@@ -9389,29 +9379,29 @@
         <v>9</v>
       </c>
       <c r="BY32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ32" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA32" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB32" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC32" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="CD32" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="CE32" s="5">
+        <v>176</v>
+      </c>
+      <c r="CE32" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>45000.647696759261</v>
       </c>
@@ -9422,7 +9412,7 @@
         <v>84</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -9437,7 +9427,7 @@
         <v>45000.649243206019</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>122</v>
@@ -9488,7 +9478,7 @@
         <v>1</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA33">
         <v>0</v>
@@ -9515,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="AI33" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ33">
         <v>2.0009999999999999</v>
@@ -9530,7 +9520,7 @@
         <v>1</v>
       </c>
       <c r="AN33" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO33">
         <v>21.195</v>
@@ -9572,7 +9562,7 @@
         <v>1</v>
       </c>
       <c r="BB33" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC33">
         <v>1.4330000000000001</v>
@@ -9587,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="BG33" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BH33">
         <v>2.2639999999999998</v>
@@ -9602,31 +9592,31 @@
         <v>26</v>
       </c>
       <c r="BL33" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM33" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BN33" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BO33" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BP33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ33" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR33" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="BS33" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT33" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU33">
         <v>1.333</v>
@@ -9641,29 +9631,29 @@
         <v>16</v>
       </c>
       <c r="BY33" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ33" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA33" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB33" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC33" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CD33" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="CE33" s="5">
+        <v>244</v>
+      </c>
+      <c r="CE33" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>45000.677800925929</v>
       </c>
@@ -9674,7 +9664,7 @@
         <v>84</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -9689,7 +9679,7 @@
         <v>45000.680092592593</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>122</v>
@@ -9740,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -9782,7 +9772,7 @@
         <v>1</v>
       </c>
       <c r="AN34" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO34">
         <v>0</v>
@@ -9824,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="BB34" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="BC34">
         <v>1.988</v>
@@ -9839,7 +9829,7 @@
         <v>1</v>
       </c>
       <c r="BG34" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BH34">
         <v>2.319</v>
@@ -9854,31 +9844,31 @@
         <v>21</v>
       </c>
       <c r="BL34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ34" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BM34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BO34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BP34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ34" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="BR34" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="BS34" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT34" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BU34">
         <v>1.19</v>
@@ -9893,29 +9883,29 @@
         <v>15</v>
       </c>
       <c r="BY34" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ34" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA34" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB34" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CC34" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="CD34" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="CE34" s="5">
+        <v>246</v>
+      </c>
+      <c r="CE34" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45000.690335648149</v>
       </c>
@@ -9926,7 +9916,7 @@
         <v>84</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -9941,7 +9931,7 @@
         <v>45000.692355266205</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>122</v>
@@ -9992,7 +9982,7 @@
         <v>1</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -10019,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="AI35" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AJ35">
         <v>2.71</v>
@@ -10034,7 +10024,7 @@
         <v>1</v>
       </c>
       <c r="AN35" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AO35">
         <v>0</v>
@@ -10061,7 +10051,7 @@
         <v>2</v>
       </c>
       <c r="AW35" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX35">
         <v>2.3849999999999998</v>
@@ -10076,7 +10066,7 @@
         <v>1</v>
       </c>
       <c r="BB35" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC35">
         <v>1.9379999999999999</v>
@@ -10091,7 +10081,7 @@
         <v>1</v>
       </c>
       <c r="BG35" s="2" t="s">
-        <v>255</v>
+        <v>143</v>
       </c>
       <c r="BH35">
         <v>1.899</v>
@@ -10106,31 +10096,31 @@
         <v>16</v>
       </c>
       <c r="BL35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BM35" s="2" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="BN35" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BO35" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BP35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR35" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="BS35" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT35" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BU35">
         <v>1.4239999999999999</v>
@@ -10145,29 +10135,29 @@
         <v>9</v>
       </c>
       <c r="BY35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ35" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="CA35" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB35" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC35" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CD35" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CE35" s="5">
+        <v>207</v>
+      </c>
+      <c r="CE35" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>45000.717094907406</v>
       </c>
@@ -10178,7 +10168,7 @@
         <v>84</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -10193,7 +10183,7 @@
         <v>45000.7192005787</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>122</v>
@@ -10271,7 +10261,7 @@
         <v>3</v>
       </c>
       <c r="AI36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ36">
         <v>7.6529999999999996</v>
@@ -10286,7 +10276,7 @@
         <v>4</v>
       </c>
       <c r="AN36" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AO36">
         <v>0</v>
@@ -10328,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="BB36" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC36">
         <v>1.9930000000000001</v>
@@ -10343,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="BG36" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BH36">
         <v>2.1389999999999998</v>
@@ -10358,31 +10348,31 @@
         <v>17</v>
       </c>
       <c r="BL36" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM36" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BN36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BO36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ36" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BP36" s="2" t="s">
+      <c r="BR36" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ36" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR36" s="2" t="s">
+      <c r="BS36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BS36" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="BT36" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU36">
         <v>1.9419999999999999</v>
@@ -10397,29 +10387,29 @@
         <v>11</v>
       </c>
       <c r="BY36" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ36" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA36" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB36" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC36" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CD36" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="CE36" s="5">
+        <v>250</v>
+      </c>
+      <c r="CE36" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>45000.729189814818</v>
       </c>
@@ -10430,7 +10420,7 @@
         <v>84</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -10445,7 +10435,7 @@
         <v>45000.731451226849</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>122</v>
@@ -10523,7 +10513,7 @@
         <v>2</v>
       </c>
       <c r="AI37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ37">
         <v>7.0149999999999997</v>
@@ -10565,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="AW37" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX37">
         <v>3.2919999999999998</v>
@@ -10580,7 +10570,7 @@
         <v>1</v>
       </c>
       <c r="BB37" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC37">
         <v>3.9049999999999998</v>
@@ -10595,7 +10585,7 @@
         <v>1</v>
       </c>
       <c r="BG37" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BH37">
         <v>4.0839999999999996</v>
@@ -10610,31 +10600,31 @@
         <v>19</v>
       </c>
       <c r="BL37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM37" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BN37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BS37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BM37" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BN37" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BO37" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR37" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BS37" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="BT37" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU37">
         <v>1.347</v>
@@ -10649,29 +10639,29 @@
         <v>14</v>
       </c>
       <c r="BY37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ37" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA37" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CC37" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="CD37" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="CE37" s="5">
+        <v>252</v>
+      </c>
+      <c r="CE37" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>45000.735983796294</v>
       </c>
@@ -10682,7 +10672,7 @@
         <v>84</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -10697,7 +10687,7 @@
         <v>45000.7390127662</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>122</v>
@@ -10748,7 +10738,7 @@
         <v>2</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA38">
         <v>0</v>
@@ -10775,7 +10765,7 @@
         <v>2</v>
       </c>
       <c r="AI38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ38">
         <v>8.8290000000000006</v>
@@ -10790,7 +10780,7 @@
         <v>1</v>
       </c>
       <c r="AN38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO38">
         <v>0</v>
@@ -10832,7 +10822,7 @@
         <v>1</v>
       </c>
       <c r="BB38" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC38">
         <v>2.2770000000000001</v>
@@ -10847,7 +10837,7 @@
         <v>1</v>
       </c>
       <c r="BG38" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BH38">
         <v>4.3070000000000004</v>
@@ -10862,31 +10852,31 @@
         <v>30</v>
       </c>
       <c r="BL38" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM38" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BN38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BO38" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BP38" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BQ38" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR38" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BS38" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT38" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU38">
         <v>1.9370000000000001</v>
@@ -10901,29 +10891,29 @@
         <v>10</v>
       </c>
       <c r="BY38" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ38" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA38" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB38" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC38" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CD38" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="CE38" s="5">
+        <v>230</v>
+      </c>
+      <c r="CE38" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>45000.745000000003</v>
       </c>
@@ -10934,7 +10924,7 @@
         <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -10949,7 +10939,7 @@
         <v>45000.746355104166</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>122</v>
@@ -11000,7 +10990,7 @@
         <v>1</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -11027,7 +11017,7 @@
         <v>1</v>
       </c>
       <c r="AI39" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ39">
         <v>5.0670000000000002</v>
@@ -11042,7 +11032,7 @@
         <v>1</v>
       </c>
       <c r="AN39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO39">
         <v>0</v>
@@ -11069,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="AW39" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX39">
         <v>1.9470000000000001</v>
@@ -11084,7 +11074,7 @@
         <v>1</v>
       </c>
       <c r="BB39" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC39">
         <v>1.4930000000000001</v>
@@ -11099,7 +11089,7 @@
         <v>1</v>
       </c>
       <c r="BG39" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BH39">
         <v>2.1480000000000001</v>
@@ -11114,31 +11104,31 @@
         <v>17</v>
       </c>
       <c r="BL39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM39" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BM39" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="BN39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BO39" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BP39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ39" s="2" t="s">
+      <c r="BS39" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT39" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="BR39" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BS39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BT39" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="BU39">
         <v>1.5349999999999999</v>
@@ -11153,29 +11143,29 @@
         <v>7</v>
       </c>
       <c r="BY39" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ39" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ39" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="CA39" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CC39" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD39" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="CE39" s="5">
+        <v>257</v>
+      </c>
+      <c r="CE39" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>45011.58971064815</v>
       </c>
@@ -11186,7 +11176,7 @@
         <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -11201,7 +11191,7 @@
         <v>45011.590956736109</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>122</v>
@@ -11321,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="AW40" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX40">
         <v>2.7360000000000002</v>
@@ -11336,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="BB40" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC40">
         <v>1.345</v>
@@ -11351,7 +11341,7 @@
         <v>1</v>
       </c>
       <c r="BG40" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BH40">
         <v>1.351</v>
@@ -11366,31 +11356,31 @@
         <v>19</v>
       </c>
       <c r="BL40" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BN40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR40" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS40" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BO40" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BP40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS40" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="BT40" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU40">
         <v>1.4350000000000001</v>
@@ -11405,29 +11395,29 @@
         <v>9</v>
       </c>
       <c r="BY40" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ40" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA40" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB40" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC40" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="CD40" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="CE40" s="5">
+        <v>260</v>
+      </c>
+      <c r="CE40" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>45012.599444444444</v>
       </c>
@@ -11438,7 +11428,7 @@
         <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -11453,7 +11443,7 @@
         <v>45012.601715370372</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>122</v>
@@ -11504,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA41">
         <v>0</v>
@@ -11531,7 +11521,7 @@
         <v>1</v>
       </c>
       <c r="AI41" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ41">
         <v>22.841000000000001</v>
@@ -11546,7 +11536,7 @@
         <v>1</v>
       </c>
       <c r="AN41" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AO41">
         <v>0</v>
@@ -11573,7 +11563,7 @@
         <v>1</v>
       </c>
       <c r="AW41" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AX41">
         <v>2.198</v>
@@ -11588,7 +11578,7 @@
         <v>1</v>
       </c>
       <c r="BB41" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="BC41">
         <v>7.915</v>
@@ -11603,7 +11593,7 @@
         <v>1</v>
       </c>
       <c r="BG41" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BH41">
         <v>6.4290000000000003</v>
@@ -11618,31 +11608,31 @@
         <v>21</v>
       </c>
       <c r="BL41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM41" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN41" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO41" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BM41" s="2" t="s">
+      <c r="BP41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BQ41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR41" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS41" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BN41" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BO41" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP41" s="2" t="s">
+      <c r="BT41" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="BQ41" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS41" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BT41" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="BU41">
         <v>0.97199999999999998</v>
@@ -11657,29 +11647,29 @@
         <v>11</v>
       </c>
       <c r="BY41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ41" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="CA41" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CC41" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="CD41" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="CE41" s="5">
+        <v>264</v>
+      </c>
+      <c r="CE41" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>45012.870358796295</v>
       </c>
@@ -11690,7 +11680,7 @@
         <v>84</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -11705,7 +11695,7 @@
         <v>45012.871646157408</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>122</v>
@@ -11756,7 +11746,7 @@
         <v>1</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA42">
         <v>0</v>
@@ -11783,7 +11773,7 @@
         <v>1</v>
       </c>
       <c r="AI42" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ42">
         <v>3.4420000000000002</v>
@@ -11798,7 +11788,7 @@
         <v>1</v>
       </c>
       <c r="AN42" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AO42">
         <v>0</v>
@@ -11825,7 +11815,7 @@
         <v>1</v>
       </c>
       <c r="AW42" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX42">
         <v>1.5189999999999999</v>
@@ -11840,7 +11830,7 @@
         <v>1</v>
       </c>
       <c r="BB42" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC42">
         <v>0.94699999999999995</v>
@@ -11855,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="BG42" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="BH42">
         <v>2.4740000000000002</v>
@@ -11870,31 +11860,31 @@
         <v>26</v>
       </c>
       <c r="BL42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BM42" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="BN42" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BO42" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BP42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR42" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ42" s="2" t="s">
+      <c r="BS42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT42" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="BR42" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BS42" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BT42" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="BU42">
         <v>1.2290000000000001</v>
@@ -11909,29 +11899,29 @@
         <v>7</v>
       </c>
       <c r="BY42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ42" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ42" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="CA42" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CC42" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD42" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="CE42" s="5">
+        <v>268</v>
+      </c>
+      <c r="CE42" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>45013.468692129631</v>
       </c>
@@ -11942,7 +11932,7 @@
         <v>84</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -11957,7 +11947,7 @@
         <v>45013.47099736111</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>122</v>
@@ -12035,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="AI43" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AJ43">
         <v>8.2949999999999999</v>
@@ -12077,7 +12067,7 @@
         <v>1</v>
       </c>
       <c r="AW43" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX43">
         <v>3.36</v>
@@ -12092,7 +12082,7 @@
         <v>1</v>
       </c>
       <c r="BB43" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC43">
         <v>4.7210000000000001</v>
@@ -12107,7 +12097,7 @@
         <v>1</v>
       </c>
       <c r="BG43" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BH43">
         <v>3.3460000000000001</v>
@@ -12122,31 +12112,31 @@
         <v>20</v>
       </c>
       <c r="BL43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP43" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BM43" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BN43" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BO43" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BP43" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="BQ43" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR43" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BS43" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BT43" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU43">
         <v>1.98</v>
@@ -12161,29 +12151,29 @@
         <v>8</v>
       </c>
       <c r="BY43" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ43" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA43" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CC43" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="CD43" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="CE43" s="5">
+        <v>272</v>
+      </c>
+      <c r="CE43" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>45013.476539351854</v>
       </c>
@@ -12194,7 +12184,7 @@
         <v>84</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -12209,7 +12199,7 @@
         <v>45013.47806872685</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>122</v>
@@ -12260,7 +12250,7 @@
         <v>1</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA44">
         <v>0</v>
@@ -12287,7 +12277,7 @@
         <v>1</v>
       </c>
       <c r="AI44" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AJ44">
         <v>7.3280000000000003</v>
@@ -12329,7 +12319,7 @@
         <v>1</v>
       </c>
       <c r="AW44" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AX44">
         <v>2.8340000000000001</v>
@@ -12344,7 +12334,7 @@
         <v>1</v>
       </c>
       <c r="BB44" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC44">
         <v>1.02</v>
@@ -12359,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="BG44" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BH44">
         <v>3.9820000000000002</v>
@@ -12374,31 +12364,31 @@
         <v>17</v>
       </c>
       <c r="BL44" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BM44" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BN44" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BO44" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BP44" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BQ44" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR44" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BS44" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BT44" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BU44">
         <v>4.6449999999999996</v>
@@ -12413,29 +12403,29 @@
         <v>7</v>
       </c>
       <c r="BY44" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ44" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CA44" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB44" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CC44" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="CD44" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="CD44" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="CE44" s="5">
+      <c r="CE44" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>45013.492777777778</v>
       </c>
@@ -12446,7 +12436,7 @@
         <v>84</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -12461,7 +12451,7 @@
         <v>45013.495203113423</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>122</v>
@@ -12539,7 +12529,7 @@
         <v>3</v>
       </c>
       <c r="AI45" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AJ45">
         <v>3.3010000000000002</v>
@@ -12554,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="AN45" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AO45">
         <v>0</v>
@@ -12581,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="AW45" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX45">
         <v>3.625</v>
@@ -12596,7 +12586,7 @@
         <v>1</v>
       </c>
       <c r="BB45" s="2" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="BC45">
         <v>2.0059999999999998</v>
@@ -12611,7 +12601,7 @@
         <v>1</v>
       </c>
       <c r="BG45" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="BH45">
         <v>2.2970000000000002</v>
@@ -12626,31 +12616,31 @@
         <v>19</v>
       </c>
       <c r="BL45" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM45" s="2" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="BN45" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BO45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BP45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BR45" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ45" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BR45" s="2" t="s">
+      <c r="BS45" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BS45" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="BT45" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BU45">
         <v>1.762</v>
@@ -12665,29 +12655,29 @@
         <v>7</v>
       </c>
       <c r="BY45" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ45" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA45" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB45" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC45" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD45" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="CE45" s="5">
+        <v>279</v>
+      </c>
+      <c r="CE45" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45013.505856481483</v>
       </c>
@@ -12698,7 +12688,7 @@
         <v>84</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -12713,7 +12703,7 @@
         <v>45013.507184861111</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>122</v>
@@ -12791,7 +12781,7 @@
         <v>1</v>
       </c>
       <c r="AI46" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ46">
         <v>5.1790000000000003</v>
@@ -12806,7 +12796,7 @@
         <v>2</v>
       </c>
       <c r="AN46" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -12848,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="BB46" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="BC46">
         <v>1.2010000000000001</v>
@@ -12863,7 +12853,7 @@
         <v>1</v>
       </c>
       <c r="BG46" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BH46">
         <v>1.6779999999999999</v>
@@ -12878,7 +12868,7 @@
         <v>19</v>
       </c>
       <c r="BL46" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM46" s="2" t="s">
         <v>125</v>
@@ -12887,22 +12877,22 @@
         <v>125</v>
       </c>
       <c r="BO46" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BP46" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BQ46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR46" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="BR46" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="BS46" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BT46" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU46">
         <v>1.31</v>
@@ -12917,29 +12907,29 @@
         <v>11</v>
       </c>
       <c r="BY46" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ46" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA46" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB46" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CC46" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD46" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CE46" s="5">
+        <v>199</v>
+      </c>
+      <c r="CE46" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45013.53193287037</v>
       </c>
@@ -12950,7 +12940,7 @@
         <v>84</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -12965,7 +12955,7 @@
         <v>45013.533314247688</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>122</v>
@@ -13016,7 +13006,7 @@
         <v>1</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA47">
         <v>0</v>
@@ -13043,7 +13033,7 @@
         <v>1</v>
       </c>
       <c r="AI47" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AJ47">
         <v>4.3710000000000004</v>
@@ -13085,7 +13075,7 @@
         <v>2</v>
       </c>
       <c r="AW47" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX47">
         <v>1.768</v>
@@ -13100,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="BB47" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC47">
         <v>2.3290000000000002</v>
@@ -13115,7 +13105,7 @@
         <v>1</v>
       </c>
       <c r="BG47" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BH47">
         <v>1.8680000000000001</v>
@@ -13130,31 +13120,31 @@
         <v>24</v>
       </c>
       <c r="BL47" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM47" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BN47" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BO47" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BP47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ47" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BR47" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="BS47" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT47" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU47">
         <v>1.7</v>
@@ -13169,29 +13159,29 @@
         <v>9</v>
       </c>
       <c r="BY47" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ47" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA47" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB47" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC47" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="CD47" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="CE47" s="5">
+        <v>282</v>
+      </c>
+      <c r="CE47" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>45013.545613425929</v>
       </c>
@@ -13202,7 +13192,7 @@
         <v>84</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -13217,7 +13207,7 @@
         <v>45013.547394062502</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>122</v>
@@ -13268,7 +13258,7 @@
         <v>1</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA48">
         <v>0</v>
@@ -13295,7 +13285,7 @@
         <v>2</v>
       </c>
       <c r="AI48" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AJ48">
         <v>3.2120000000000002</v>
@@ -13337,7 +13327,7 @@
         <v>3</v>
       </c>
       <c r="AW48" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX48">
         <v>1.8720000000000001</v>
@@ -13352,7 +13342,7 @@
         <v>1</v>
       </c>
       <c r="BB48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC48">
         <v>0.95599999999999996</v>
@@ -13367,7 +13357,7 @@
         <v>1</v>
       </c>
       <c r="BG48" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BH48">
         <v>1.6930000000000001</v>
@@ -13382,31 +13372,31 @@
         <v>22</v>
       </c>
       <c r="BL48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BM48" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BN48" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BO48" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BP48" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BQ48" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BR48" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BS48" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BT48" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU48">
         <v>1.4830000000000001</v>
@@ -13421,29 +13411,29 @@
         <v>12</v>
       </c>
       <c r="BY48" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ48" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA48" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB48" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC48" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="CD48" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="CE48" s="5">
+        <v>285</v>
+      </c>
+      <c r="CE48" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>45013.565057870372</v>
       </c>
@@ -13454,7 +13444,7 @@
         <v>84</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -13469,7 +13459,7 @@
         <v>45013.569234351853</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>122</v>
@@ -13520,7 +13510,7 @@
         <v>1</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA49">
         <v>0</v>
@@ -13604,7 +13594,7 @@
         <v>1</v>
       </c>
       <c r="BB49" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="BC49">
         <v>2.2000000000000002</v>
@@ -13619,7 +13609,7 @@
         <v>1</v>
       </c>
       <c r="BG49" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BH49">
         <v>5.1870000000000003</v>
@@ -13634,31 +13624,31 @@
         <v>17</v>
       </c>
       <c r="BL49" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM49" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BN49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP49" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="BN49" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BO49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BP49" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="BQ49" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR49" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BS49" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT49" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU49">
         <v>1.2130000000000001</v>
@@ -13673,29 +13663,29 @@
         <v>13</v>
       </c>
       <c r="BY49" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ49" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA49" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB49" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC49" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD49" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="CE49" s="5">
+        <v>288</v>
+      </c>
+      <c r="CE49" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>45013.587870370371</v>
       </c>
@@ -13706,7 +13696,7 @@
         <v>84</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -13721,7 +13711,7 @@
         <v>45013.58987077546</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>122</v>
@@ -13799,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="AI50" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ50">
         <v>3.464</v>
@@ -13814,7 +13804,7 @@
         <v>1</v>
       </c>
       <c r="AN50" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO50">
         <v>0</v>
@@ -13856,7 +13846,7 @@
         <v>1</v>
       </c>
       <c r="BB50" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC50">
         <v>1.6040000000000001</v>
@@ -13871,7 +13861,7 @@
         <v>2</v>
       </c>
       <c r="BG50" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BH50">
         <v>3.202</v>
@@ -13886,31 +13876,31 @@
         <v>20</v>
       </c>
       <c r="BL50" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM50" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BN50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BO50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BP50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BQ50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="BQ50" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR50" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="BS50" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT50" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU50">
         <v>1.5429999999999999</v>
@@ -13925,29 +13915,29 @@
         <v>8</v>
       </c>
       <c r="BY50" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ50" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA50" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB50" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CC50" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="CD50" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="CE50" s="5">
+        <v>291</v>
+      </c>
+      <c r="CE50" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>45013.59783564815</v>
       </c>
@@ -13958,7 +13948,7 @@
         <v>84</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -13973,7 +13963,7 @@
         <v>45013.600562199077</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>122</v>
@@ -14024,7 +14014,7 @@
         <v>3</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -14051,7 +14041,7 @@
         <v>5</v>
       </c>
       <c r="AI51" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AJ51">
         <v>4.4640000000000004</v>
@@ -14066,7 +14056,7 @@
         <v>2</v>
       </c>
       <c r="AN51" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AO51">
         <v>0</v>
@@ -14093,7 +14083,7 @@
         <v>2</v>
       </c>
       <c r="AW51" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AX51">
         <v>3.3079999999999998</v>
@@ -14108,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="BB51" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="BC51">
         <v>4.452</v>
@@ -14123,7 +14113,7 @@
         <v>1</v>
       </c>
       <c r="BG51" s="2" t="s">
-        <v>130</v>
+        <v>293</v>
       </c>
       <c r="BH51">
         <v>1.5529999999999999</v>
@@ -14138,31 +14128,31 @@
         <v>27</v>
       </c>
       <c r="BL51" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM51" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BN51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP51" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BO51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BP51" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="BQ51" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR51" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BS51" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BT51" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BU51">
         <v>1.345</v>
@@ -14177,29 +14167,29 @@
         <v>13</v>
       </c>
       <c r="BY51" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ51" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA51" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC51" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="CC51" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="CD51" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="CE51" s="5">
+      <c r="CE51" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>45013.61513888889</v>
       </c>
@@ -14210,7 +14200,7 @@
         <v>84</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E52">
         <v>100</v>
@@ -14276,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA52">
         <v>1.482</v>
@@ -14303,7 +14293,7 @@
         <v>2</v>
       </c>
       <c r="AI52" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AJ52">
         <v>6.335</v>
@@ -14318,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="AN52" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO52">
         <v>0</v>
@@ -14345,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="AW52" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AX52">
         <v>3.5840000000000001</v>
@@ -14360,7 +14350,7 @@
         <v>1</v>
       </c>
       <c r="BB52" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC52">
         <v>1.4870000000000001</v>
@@ -14390,31 +14380,31 @@
         <v>25</v>
       </c>
       <c r="BL52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM52" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BN52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BM52" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="BN52" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="BO52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BP52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR52" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ52" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR52" s="2" t="s">
+      <c r="BS52" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BS52" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="BT52" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BU52">
         <v>1.335</v>
@@ -14429,29 +14419,29 @@
         <v>15</v>
       </c>
       <c r="BY52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ52" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ52" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="CA52" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB52" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC52" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="CD52" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CE52" s="5">
+        <v>184</v>
+      </c>
+      <c r="CE52" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>45015.47625</v>
       </c>
@@ -14528,7 +14518,7 @@
         <v>2</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA53">
         <v>0</v>
@@ -14555,7 +14545,7 @@
         <v>1</v>
       </c>
       <c r="AI53" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AJ53">
         <v>6.008</v>
@@ -14570,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="AN53" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AO53">
         <v>0</v>
@@ -14597,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="AW53" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX53">
         <v>2.6739999999999999</v>
@@ -14612,7 +14602,7 @@
         <v>1</v>
       </c>
       <c r="BB53" s="2" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="BC53">
         <v>3.6859999999999999</v>
@@ -14627,7 +14617,7 @@
         <v>1</v>
       </c>
       <c r="BG53" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BH53">
         <v>3.8610000000000002</v>
@@ -14642,31 +14632,31 @@
         <v>17</v>
       </c>
       <c r="BL53" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BM53" s="2" t="s">
         <v>126</v>
       </c>
       <c r="BN53" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BO53" s="2" t="s">
         <v>125</v>
       </c>
       <c r="BP53" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BQ53" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BR53" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="BS53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT53" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU53">
         <v>1.4810000000000001</v>
@@ -14681,29 +14671,29 @@
         <v>12</v>
       </c>
       <c r="BY53" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ53" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA53" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC53" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CC53" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="CD53" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="CE53" s="5">
+        <v>165</v>
+      </c>
+      <c r="CE53" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>45015.494398148148</v>
       </c>
@@ -14714,7 +14704,7 @@
         <v>84</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -14780,7 +14770,7 @@
         <v>1</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA54">
         <v>0</v>
@@ -14807,7 +14797,7 @@
         <v>1</v>
       </c>
       <c r="AI54" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AJ54">
         <v>3.7919999999999998</v>
@@ -14864,7 +14854,7 @@
         <v>1</v>
       </c>
       <c r="BB54" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC54">
         <v>1.323</v>
@@ -14879,7 +14869,7 @@
         <v>2</v>
       </c>
       <c r="BG54" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BH54">
         <v>4.9189999999999996</v>
@@ -14894,31 +14884,31 @@
         <v>26</v>
       </c>
       <c r="BL54" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BM54" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BN54" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BO54" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BP54" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BQ54" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BR54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BS54" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BS54" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="BT54" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="BU54">
         <v>1.8620000000000001</v>
@@ -14933,29 +14923,29 @@
         <v>10</v>
       </c>
       <c r="BY54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ54" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="BZ54" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="CA54" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB54" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CC54" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD54" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="CE54" s="5">
+      <c r="CE54" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>45015.54</v>
       </c>
@@ -15032,7 +15022,7 @@
         <v>1</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -15101,7 +15091,7 @@
         <v>1</v>
       </c>
       <c r="AW55" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AX55">
         <v>2.1259999999999999</v>
@@ -15116,7 +15106,7 @@
         <v>1</v>
       </c>
       <c r="BB55" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC55">
         <v>1.6719999999999999</v>
@@ -15146,10 +15136,10 @@
         <v>16</v>
       </c>
       <c r="BL55" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM55" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BN55" s="2" t="s">
         <v>125</v>
@@ -15158,19 +15148,19 @@
         <v>125</v>
       </c>
       <c r="BP55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR55" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BQ55" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BR55" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="BS55" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT55" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU55">
         <v>1.26</v>
@@ -15185,29 +15175,29 @@
         <v>7</v>
       </c>
       <c r="BY55" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BZ55" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA55" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB55" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CC55" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="CD55" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="CE55" s="5">
+      <c r="CE55" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:83" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:83" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>45015.58666666667</v>
       </c>
@@ -15284,7 +15274,7 @@
         <v>2</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA56">
         <v>0</v>
@@ -15326,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="AN56" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AO56">
         <v>0</v>
@@ -15353,7 +15343,7 @@
         <v>1</v>
       </c>
       <c r="AW56" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AX56">
         <v>1.1779999999999999</v>
@@ -15368,7 +15358,7 @@
         <v>1</v>
       </c>
       <c r="BB56" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BC56">
         <v>1.0940000000000001</v>
@@ -15398,10 +15388,10 @@
         <v>23</v>
       </c>
       <c r="BL56" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="BM56" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BN56" s="2" t="s">
         <v>125</v>
@@ -15410,19 +15400,19 @@
         <v>125</v>
       </c>
       <c r="BP56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BQ56" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BR56" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BS56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BT56" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BU56">
         <v>1.2210000000000001</v>
@@ -15437,24 +15427,24 @@
         <v>11</v>
       </c>
       <c r="BY56" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BZ56" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CA56" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CB56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC56" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="CC56" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="CD56" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="CE56" s="5">
+      <c r="CE56" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -15463,7 +15453,7 @@
   <autoFilter ref="A2:CD57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C56 D1:D56 G1:G56 I1:I56 J1:J56 K1:K56 L1:L56 M1:M56 P1:P56 Q1:Q56 Z1:Z32 AI1:AI27 AN1:AN16 AW1:AW3 BB1:BB22 BC1:BC56 BD1:BD56 BE1:BE22 BF1:BF56 BG1:BG2 BL1:BL56 BM1:BM2 BN1:BN56 BO1:BO56 BP1:BP56 BQ1:BQ56 BR1:BR56 BS1:BS56 BT1:BT56 BY1:BY56 BZ1:BZ56 CA1:CA56 CB1:CB56 CC1:CC56 CD1:CD56 BM4 BM6:BM13 BM15:BM17 BM19:BM34 BM36:BM38 BM40:BM41 BM43:BM44 BM46:BM51 BM53:BM56 AW5:AW6 AW9:AW12 AW14:AW15 AW17:AW27 AW31:AW34 AW36 AW38 AW40 AW44 AW46:AW50 AW52 AW54:AW56 AN18:AN34 AN36:AN40 AN43:AN44 AN46:AN50 AN54:AN56 AI29:AI34 AI36:AI38 AI40:AI41 AI44:AI50 Z34:Z37 Z40 Z43:Z50 BG16:BG31 BG52:BG56 AN52 AI52:AI56 Z52:Z56 BG36:BG50 BG33:BG34 BB25:BB56 BE24:BE56" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C56 D1:D56 G1:G56 I1:I56 J1:J56 K1:K10 L1:L56 M1:M56 P1:P56 Q1:Q56 Z1:Z32 AI1:AI27 AN1:AN16 AW1:AW3 BB1:BB2 BC1:BC56 BD1:BD56 BE1:BE56 BF1:BF56 BG1:BG56 BL1:BL56 BM1:BM56 BN1:BN56 BO1:BO56 BP1:BP56 BQ1:BQ56 BR1:BR56 BS1:BS56 BT1:BT56 BY1:BY56 BZ1:BZ56 CA1:CA56 CB1:CB56 CC1:CC56 CD1:CD56 Z34:Z37 Z40 Z43:Z50 AI29:AI34 AI36:AI38 AI40:AI41 AI44:AI50 AN18:AN34 AN36:AN40 AN43:AN44 AN46:AN50 AN54:AN56 AW5:AW6 AW9:AW12 AW14:AW15 AW17:AW27 AW31:AW34 AW36 AW38 AW40 AW44 AW46:AW50 AW52 AW54:AW56 Z52:Z56 AI52:AI56 AN52 BB6:BB56 K12:K56" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>